--- a/src/AppBundle/tmp/ubuntu14_report.xlsx
+++ b/src/AppBundle/tmp/ubuntu14_report.xlsx
@@ -21,9 +21,6 @@
     <t>Date (YYYY/MM/DD)</t>
   </si>
   <si>
-    <t>2015-10-16</t>
-  </si>
-  <si>
     <t>2015-10-17</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>2015-11-16</t>
+  </si>
+  <si>
+    <t>2015-11-17</t>
   </si>
   <si>
     <t>1 min avg Load</t>
@@ -235,91 +235,91 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.88</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.04</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1</c:v>
+                  <c:v>1.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.13</c:v>
+                  <c:v>1.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.14</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.18</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.23</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.31</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.37</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.39</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.36</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1.33</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.34</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>1.33</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.34</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.35</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.33</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.39</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.35</c:v>
@@ -357,49 +357,49 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.05</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1</c:v>
+                  <c:v>1.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.13</c:v>
+                  <c:v>1.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.15</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.18</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.23</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.37</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.38</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.35</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.31</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.32</c:v>
@@ -408,49 +408,49 @@
                   <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.32</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.35</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.33</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.35</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.32</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.38</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.35</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.34</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,97 +479,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -580,100 +580,100 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>1.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.16</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.18</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.23</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.24</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.25</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.32</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.35</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.33</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.27</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.29</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1.3</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>1.31</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>1.32</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>1.33</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,97 +824,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1623,100 +1623,100 @@
         <v>33</v>
       </c>
       <c r="B2">
+        <v>1.13</v>
+      </c>
+      <c r="C2">
         <v>1.16</v>
-      </c>
-      <c r="C2">
-        <v>1.13</v>
       </c>
       <c r="D2">
         <v>1.16</v>
       </c>
       <c r="E2">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="F2">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="G2">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H2">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I2">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="J2">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="K2">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="L2">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M2">
         <v>1.35</v>
       </c>
       <c r="N2">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="O2">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P2">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="Q2">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R2">
         <v>1.3</v>
       </c>
       <c r="S2">
+        <v>1.31</v>
+      </c>
+      <c r="T2">
+        <v>1.35</v>
+      </c>
+      <c r="U2">
+        <v>1.34</v>
+      </c>
+      <c r="V2">
+        <v>1.36</v>
+      </c>
+      <c r="W2">
+        <v>1.29</v>
+      </c>
+      <c r="X2">
+        <v>1.32</v>
+      </c>
+      <c r="Y2">
+        <v>1.33</v>
+      </c>
+      <c r="Z2">
+        <v>1.35</v>
+      </c>
+      <c r="AA2">
         <v>1.3</v>
       </c>
-      <c r="T2">
+      <c r="AB2">
+        <v>1.33</v>
+      </c>
+      <c r="AC2">
+        <v>1.39</v>
+      </c>
+      <c r="AD2">
         <v>1.31</v>
       </c>
-      <c r="U2">
-        <v>1.35</v>
-      </c>
-      <c r="V2">
-        <v>1.34</v>
-      </c>
-      <c r="W2">
-        <v>1.36</v>
-      </c>
-      <c r="X2">
-        <v>1.29</v>
-      </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>1.32</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>1.33</v>
       </c>
-      <c r="AA2">
-        <v>1.35</v>
-      </c>
-      <c r="AB2">
+      <c r="AG2">
         <v>1.3</v>
-      </c>
-      <c r="AC2">
-        <v>1.33</v>
-      </c>
-      <c r="AD2">
-        <v>1.39</v>
-      </c>
-      <c r="AE2">
-        <v>1.31</v>
-      </c>
-      <c r="AF2">
-        <v>1.32</v>
-      </c>
-      <c r="AG2">
-        <v>1.34</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -1724,49 +1724,49 @@
         <v>34</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="C3">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="D3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="F3">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="G3">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="H3">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="I3">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="J3">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="K3">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="L3">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M3">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="N3">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="O3">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="P3">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Q3">
         <v>1.32</v>
@@ -1775,49 +1775,49 @@
         <v>1.32</v>
       </c>
       <c r="S3">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="T3">
         <v>1.35</v>
       </c>
       <c r="U3">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="V3">
+        <v>1.37</v>
+      </c>
+      <c r="W3">
+        <v>1.32</v>
+      </c>
+      <c r="X3">
         <v>1.33</v>
-      </c>
-      <c r="W3">
-        <v>1.37</v>
-      </c>
-      <c r="X3">
-        <v>1.32</v>
       </c>
       <c r="Y3">
         <v>1.33</v>
       </c>
       <c r="Z3">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AA3">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AB3">
         <v>1.32</v>
       </c>
       <c r="AC3">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AD3">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AE3">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AF3">
         <v>1.34</v>
       </c>
       <c r="AG3">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -1825,91 +1825,91 @@
         <v>35</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="C4">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="D4">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="E4">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="F4">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="G4">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="H4">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I4">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="J4">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="K4">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="L4">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M4">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="N4">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="O4">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4">
         <v>1.33</v>
       </c>
       <c r="Q4">
+        <v>1.34</v>
+      </c>
+      <c r="R4">
         <v>1.33</v>
       </c>
-      <c r="R4">
+      <c r="S4">
+        <v>1.35</v>
+      </c>
+      <c r="T4">
+        <v>1.36</v>
+      </c>
+      <c r="U4">
         <v>1.34</v>
       </c>
-      <c r="S4">
+      <c r="V4">
+        <v>1.37</v>
+      </c>
+      <c r="W4">
         <v>1.33</v>
       </c>
-      <c r="T4">
-        <v>1.35</v>
-      </c>
-      <c r="U4">
-        <v>1.36</v>
-      </c>
-      <c r="V4">
+      <c r="X4">
         <v>1.34</v>
-      </c>
-      <c r="W4">
-        <v>1.37</v>
-      </c>
-      <c r="X4">
-        <v>1.33</v>
       </c>
       <c r="Y4">
         <v>1.34</v>
       </c>
       <c r="Z4">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AA4">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AB4">
         <v>1.33</v>
       </c>
       <c r="AC4">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AD4">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AE4">
         <v>1.35</v>

--- a/src/AppBundle/tmp/ubuntu14_report.xlsx
+++ b/src/AppBundle/tmp/ubuntu14_report.xlsx
@@ -16,24 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Date (YYYY/MM/DD)</t>
-  </si>
-  <si>
-    <t>2015-10-17</t>
-  </si>
-  <si>
-    <t>2015-10-18</t>
-  </si>
-  <si>
-    <t>2015-10-19</t>
-  </si>
-  <si>
-    <t>2015-10-20</t>
-  </si>
-  <si>
-    <t>2015-10-21</t>
   </si>
   <si>
     <t>2015-10-22</t>
@@ -231,103 +216,88 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Ubuntu_CPU_Load!$B$4:$AG$4</c:f>
+              <c:f>Ubuntu_CPU_Load!$B$4:$AB$4</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.91</c:v>
+                  <c:v>1.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95</c:v>
+                  <c:v>1.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.04</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.13</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.14</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.18</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.23</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.31</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.35</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.34</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.37</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.34</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.34</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.33</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>1.34</c:v>
                 </c:pt>
               </c:numCache>
@@ -353,103 +323,88 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Ubuntu_CPU_Load!$B$3:$AG$3</c:f>
+              <c:f>Ubuntu_CPU_Load!$B$3:$AB$3</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.93</c:v>
+                  <c:v>1.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97</c:v>
+                  <c:v>1.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.05</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.13</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.15</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.18</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.23</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.37</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.38</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.31</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.32</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.32</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.35</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.33</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.37</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.33</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.33</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.35</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.32</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.32</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.38</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>1.33</c:v>
                 </c:pt>
               </c:numCache>
@@ -475,100 +430,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Ubuntu_CPU_Load!$B$1:$AF$1</c:f>
+              <c:f>Ubuntu_CPU_Load!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -576,103 +516,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ubuntu_CPU_Load!$B$2:$AG$2</c:f>
+              <c:f>Ubuntu_CPU_Load!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.13</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.16</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.16</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.18</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.23</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.24</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.25</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.27</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.32</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.35</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>1.33</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1.31</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>1.32</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>1.33</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.3</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.31</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.32</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>1.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -820,100 +745,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Ubuntu_Ping!$B$1:$AF$1</c:f>
+              <c:f>Ubuntu_Ping!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -921,9 +831,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ubuntu_Ping!$B$2:$AG$2</c:f>
+              <c:f>Ubuntu_Ping!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.04</c:v>
                 </c:pt>
@@ -1003,21 +913,6 @@
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1119,7 +1014,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1156,7 +1051,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1473,7 +1368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,15 +1404,10 @@
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1602,322 +1492,262 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="B2">
+        <v>1.24</v>
+      </c>
+      <c r="C2">
+        <v>1.25</v>
+      </c>
+      <c r="D2">
+        <v>1.27</v>
+      </c>
+      <c r="E2">
+        <v>1.3</v>
+      </c>
+      <c r="F2">
+        <v>1.32</v>
+      </c>
+      <c r="G2">
+        <v>1.35</v>
+      </c>
+      <c r="H2">
+        <v>1.35</v>
+      </c>
+      <c r="I2">
+        <v>1.33</v>
+      </c>
+      <c r="J2">
+        <v>1.27</v>
+      </c>
+      <c r="K2">
+        <v>1.29</v>
+      </c>
+      <c r="L2">
+        <v>1.3</v>
+      </c>
+      <c r="M2">
+        <v>1.3</v>
+      </c>
+      <c r="N2">
+        <v>1.31</v>
+      </c>
+      <c r="O2">
+        <v>1.35</v>
+      </c>
+      <c r="P2">
+        <v>1.34</v>
+      </c>
+      <c r="Q2">
+        <v>1.36</v>
+      </c>
+      <c r="R2">
+        <v>1.29</v>
+      </c>
+      <c r="S2">
+        <v>1.32</v>
+      </c>
+      <c r="T2">
+        <v>1.33</v>
+      </c>
+      <c r="U2">
+        <v>1.35</v>
+      </c>
+      <c r="V2">
+        <v>1.3</v>
+      </c>
+      <c r="W2">
+        <v>1.33</v>
+      </c>
+      <c r="X2">
+        <v>1.39</v>
+      </c>
+      <c r="Y2">
+        <v>1.31</v>
+      </c>
+      <c r="Z2">
+        <v>1.32</v>
+      </c>
+      <c r="AA2">
+        <v>1.33</v>
+      </c>
+      <c r="AB2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
+      <c r="B3">
         <v>1.13</v>
       </c>
-      <c r="C2">
-        <v>1.16</v>
-      </c>
-      <c r="D2">
-        <v>1.16</v>
-      </c>
-      <c r="E2">
+      <c r="C3">
+        <v>1.15</v>
+      </c>
+      <c r="D3">
         <v>1.18</v>
       </c>
-      <c r="F2">
+      <c r="E3">
         <v>1.23</v>
       </c>
-      <c r="G2">
-        <v>1.24</v>
-      </c>
-      <c r="H2">
-        <v>1.25</v>
-      </c>
-      <c r="I2">
-        <v>1.27</v>
-      </c>
-      <c r="J2">
+      <c r="F3">
         <v>1.3</v>
       </c>
-      <c r="K2">
+      <c r="G3">
+        <v>1.37</v>
+      </c>
+      <c r="H3">
+        <v>1.38</v>
+      </c>
+      <c r="I3">
+        <v>1.35</v>
+      </c>
+      <c r="J3">
+        <v>1.31</v>
+      </c>
+      <c r="K3">
         <v>1.32</v>
       </c>
-      <c r="L2">
-        <v>1.35</v>
-      </c>
-      <c r="M2">
-        <v>1.35</v>
-      </c>
-      <c r="N2">
-        <v>1.33</v>
-      </c>
-      <c r="O2">
-        <v>1.27</v>
-      </c>
-      <c r="P2">
-        <v>1.29</v>
-      </c>
-      <c r="Q2">
-        <v>1.3</v>
-      </c>
-      <c r="R2">
-        <v>1.3</v>
-      </c>
-      <c r="S2">
-        <v>1.31</v>
-      </c>
-      <c r="T2">
-        <v>1.35</v>
-      </c>
-      <c r="U2">
-        <v>1.34</v>
-      </c>
-      <c r="V2">
-        <v>1.36</v>
-      </c>
-      <c r="W2">
-        <v>1.29</v>
-      </c>
-      <c r="X2">
+      <c r="L3">
         <v>1.32</v>
       </c>
-      <c r="Y2">
-        <v>1.33</v>
-      </c>
-      <c r="Z2">
-        <v>1.35</v>
-      </c>
-      <c r="AA2">
-        <v>1.3</v>
-      </c>
-      <c r="AB2">
-        <v>1.33</v>
-      </c>
-      <c r="AC2">
-        <v>1.39</v>
-      </c>
-      <c r="AD2">
-        <v>1.31</v>
-      </c>
-      <c r="AE2">
+      <c r="M3">
         <v>1.32</v>
-      </c>
-      <c r="AF2">
-        <v>1.33</v>
-      </c>
-      <c r="AG2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>0.93</v>
-      </c>
-      <c r="C3">
-        <v>0.97</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1.05</v>
-      </c>
-      <c r="F3">
-        <v>1.1</v>
-      </c>
-      <c r="G3">
-        <v>1.13</v>
-      </c>
-      <c r="H3">
-        <v>1.15</v>
-      </c>
-      <c r="I3">
-        <v>1.18</v>
-      </c>
-      <c r="J3">
-        <v>1.23</v>
-      </c>
-      <c r="K3">
-        <v>1.3</v>
-      </c>
-      <c r="L3">
-        <v>1.37</v>
-      </c>
-      <c r="M3">
-        <v>1.38</v>
       </c>
       <c r="N3">
         <v>1.35</v>
       </c>
       <c r="O3">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P3">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q3">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="R3">
         <v>1.32</v>
       </c>
       <c r="S3">
+        <v>1.33</v>
+      </c>
+      <c r="T3">
+        <v>1.33</v>
+      </c>
+      <c r="U3">
         <v>1.35</v>
       </c>
-      <c r="T3">
-        <v>1.35</v>
-      </c>
-      <c r="U3">
-        <v>1.33</v>
-      </c>
       <c r="V3">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="W3">
         <v>1.32</v>
       </c>
       <c r="X3">
+        <v>1.38</v>
+      </c>
+      <c r="Y3">
+        <v>1.35</v>
+      </c>
+      <c r="Z3">
+        <v>1.34</v>
+      </c>
+      <c r="AA3">
+        <v>1.34</v>
+      </c>
+      <c r="AB3">
         <v>1.33</v>
       </c>
-      <c r="Y3">
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>1.13</v>
+      </c>
+      <c r="C4">
+        <v>1.14</v>
+      </c>
+      <c r="D4">
+        <v>1.18</v>
+      </c>
+      <c r="E4">
+        <v>1.23</v>
+      </c>
+      <c r="F4">
+        <v>1.31</v>
+      </c>
+      <c r="G4">
+        <v>1.37</v>
+      </c>
+      <c r="H4">
+        <v>1.39</v>
+      </c>
+      <c r="I4">
+        <v>1.36</v>
+      </c>
+      <c r="J4">
         <v>1.33</v>
       </c>
-      <c r="Z3">
+      <c r="K4">
+        <v>1.33</v>
+      </c>
+      <c r="L4">
+        <v>1.34</v>
+      </c>
+      <c r="M4">
+        <v>1.33</v>
+      </c>
+      <c r="N4">
         <v>1.35</v>
       </c>
-      <c r="AA3">
-        <v>1.32</v>
-      </c>
-      <c r="AB3">
-        <v>1.32</v>
-      </c>
-      <c r="AC3">
-        <v>1.38</v>
-      </c>
-      <c r="AD3">
-        <v>1.35</v>
-      </c>
-      <c r="AE3">
+      <c r="O4">
+        <v>1.36</v>
+      </c>
+      <c r="P4">
         <v>1.34</v>
       </c>
-      <c r="AF3">
-        <v>1.34</v>
-      </c>
-      <c r="AG3">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>0.91</v>
-      </c>
-      <c r="C4">
-        <v>0.95</v>
-      </c>
-      <c r="D4">
-        <v>0.99</v>
-      </c>
-      <c r="E4">
-        <v>1.04</v>
-      </c>
-      <c r="F4">
-        <v>1.1</v>
-      </c>
-      <c r="G4">
-        <v>1.13</v>
-      </c>
-      <c r="H4">
-        <v>1.14</v>
-      </c>
-      <c r="I4">
-        <v>1.18</v>
-      </c>
-      <c r="J4">
-        <v>1.23</v>
-      </c>
-      <c r="K4">
-        <v>1.31</v>
-      </c>
-      <c r="L4">
+      <c r="Q4">
         <v>1.37</v>
-      </c>
-      <c r="M4">
-        <v>1.39</v>
-      </c>
-      <c r="N4">
-        <v>1.36</v>
-      </c>
-      <c r="O4">
-        <v>1.33</v>
-      </c>
-      <c r="P4">
-        <v>1.33</v>
-      </c>
-      <c r="Q4">
-        <v>1.34</v>
       </c>
       <c r="R4">
         <v>1.33</v>
       </c>
       <c r="S4">
+        <v>1.34</v>
+      </c>
+      <c r="T4">
+        <v>1.34</v>
+      </c>
+      <c r="U4">
         <v>1.35</v>
       </c>
-      <c r="T4">
-        <v>1.36</v>
-      </c>
-      <c r="U4">
-        <v>1.34</v>
-      </c>
       <c r="V4">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="W4">
         <v>1.33</v>
       </c>
       <c r="X4">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="Y4">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Z4">
         <v>1.35</v>
       </c>
       <c r="AA4">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AB4">
-        <v>1.33</v>
-      </c>
-      <c r="AC4">
-        <v>1.39</v>
-      </c>
-      <c r="AD4">
-        <v>1.35</v>
-      </c>
-      <c r="AE4">
-        <v>1.35</v>
-      </c>
-      <c r="AF4">
-        <v>1.35</v>
-      </c>
-      <c r="AG4">
         <v>1.34</v>
       </c>
     </row>
@@ -1943,7 +1773,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1979,15 +1809,10 @@
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2072,26 +1897,11 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
       <c r="B2">
         <v>0.04</v>
       </c>
@@ -2171,21 +1981,6 @@
         <v>0.04</v>
       </c>
       <c r="AB2">
-        <v>0.04</v>
-      </c>
-      <c r="AC2">
-        <v>0.04</v>
-      </c>
-      <c r="AD2">
-        <v>0.04</v>
-      </c>
-      <c r="AE2">
-        <v>0.04</v>
-      </c>
-      <c r="AF2">
-        <v>0.04</v>
-      </c>
-      <c r="AG2">
         <v>0.04</v>
       </c>
     </row>
